--- a/01.Datascience/Summary.xlsx
+++ b/01.Datascience/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JUN_data\gitee\PythonNote\01.Datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A0049B-C3EA-40A4-B080-080DBAC8D8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C87C8F-8EDA-4AA8-8B74-7DD5C60A6A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="4188" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numpy" sheetId="4" r:id="rId1"/>
@@ -22,37 +22,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="227">
   <si>
     <t>mp.plot(xarray, yarray)</t>
   </si>
   <si>
     <t>mp.vlines(3, 2, 10)
 mp.hlines(5, 1, 15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mp.xlim(x_limt_min, x_limit_max)
 mp.ylim(y_limt_min, y_limit_max)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 mp.xticks(x_val_list , x_text_list )
 mp.yticks(y_val_list , y_text_list )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>显示曲线图例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>标注特殊点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文本备注特殊点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -65,7 +65,7 @@
       </rPr>
       <t>分类</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -78,7 +78,7 @@
       </rPr>
       <t>语法</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -91,7 +91,7 @@
       </rPr>
       <t>功能</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -104,7 +104,7 @@
       </rPr>
       <t>备注</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -117,7 +117,7 @@
       </rPr>
       <t>其他参数</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -130,7 +130,7 @@
       </rPr>
       <t>基本绘图</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -448,7 +448,7 @@
       </rPr>
       <t>浮点数值</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -461,7 +461,7 @@
       </rPr>
       <t>绘制水平线与垂直线</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -495,7 +495,7 @@
       </rPr>
       <t>int/float</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,7 +630,7 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -658,7 +658,7 @@
 axis.set_position((type, val))
 axis.set_color(color)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -671,7 +671,7 @@
       </rPr>
       <t>设置坐标轴位置及颜色</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -839,7 +839,7 @@
       </rPr>
       <t>参照值</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -884,14 +884,14 @@
       <t>'$y=\frac{1}{2}x$')
 mp.legend(loc='best')</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">r'$x^n+y^n=z^n$',
 r'$\int\frac{1}{x} dx = \ln |x| + C$',
 r'$-\frac{\pi}{2}$'
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -998,7 +998,7 @@
 'center left':6, 'center right':7, 'lower center':8, 
 'upper center':9, 'center':1, </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1124,7 +1124,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1370,11 +1370,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1483,7 +1483,7 @@
 ============   =============================================
 ```</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1496,7 +1496,7 @@
       </rPr>
       <t>图形窗口</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1621,11 +1621,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绘制或切换一个图形窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1893,15 +1893,15 @@
       </rPr>
       <t xml:space="preserve">mp.tight_layout() </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mp.text(x,y,s, ha='center', va='center', size=36, alpha=0.7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>窗口中绘制文字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1926,11 +1926,11 @@
       </rPr>
       <t>(0,1)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设置图表参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2063,7 +2063,7 @@
       </rPr>
       <t>列</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2207,11 +2207,11 @@
       </rPr>
       <t>mp.subplot(gs[0, :2])</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mp.subplot(x, y, i)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2262,107 +2262,103 @@
       </rPr>
       <t>个矩阵窗口</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>拆分与合并窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>np.count_nonzero([1,0,1,2,3,0])</t>
   </si>
   <si>
-    <t>统计举证元素非False个数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>数值统计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>矩阵的统计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sstd = np.std(closing_prices, ddof=1)</t>
   </si>
   <si>
     <t>样本标准差</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>np.std(closing_prices)</t>
   </si>
   <si>
     <t>总体标准差</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>标准差</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>np.median(closing_prices)</t>
   </si>
   <si>
     <t>中位数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>np.maximum() np.minimum()</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>将两个同维数组中对应元素中相比更大/更小元素构成一个新的数组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>np.argmax() mp.argmin()</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>返回一个数组中最大/最小元素的下标</t>
   </si>
   <si>
     <t>np.max()  np.min()  np.ptp()</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>返回一个数组中最大值/最小值/极差</t>
   </si>
   <si>
     <t>最值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>np.average(closing_prices, weights=volumes)</t>
   </si>
   <si>
     <t>加权平均数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>np.mean(array)</t>
   </si>
   <si>
     <t>算术平均数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>数学计算</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>矩阵间的计算</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>numpy杂项功能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>矩阵的生成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>array([0, 2, 1, 3], dtype=int64)</t>
@@ -2372,15 +2368,15 @@
   </si>
   <si>
     <t>返回排序后的对应索引</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基本方法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>矩阵的基本方法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>b = np.pad(b, pad_width=(2, 3), mode='constant', constant_values=-1)</t>
@@ -2486,369 +2482,400 @@
   </si>
   <si>
     <t>#略，同reshape，不过不生成新对象</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>a.resize(2, 2, 2)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接改变对象维度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>就地变维</t>
   </si>
   <si>
+    <t>np.arange(5).flatten()</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.flatten()</t>
+  </si>
+  <si>
+    <t>复制变维（数据独立）</t>
+  </si>
+  <si>
+    <t>array([1, 1, 2, 2])</t>
+  </si>
+  <si>
+    <t>np.array([[[1,1], [2,2]]]).ravel()</t>
+  </si>
+  <si>
+    <t>c.ravel()</t>
+  </si>
+  <si>
+    <t>array([[[0],[1]],  [[2],[3]]])</t>
+  </si>
+  <si>
+    <t>np.arange(4).reshape(2,2,1)</t>
+  </si>
+  <si>
+    <t>b.reshape(2, 2, 2)</t>
+  </si>
+  <si>
+    <t>视图变维（数据共享）</t>
+  </si>
+  <si>
+    <t>ndarray维度操作</t>
+  </si>
+  <si>
+    <t>3i4  #3个元素，一维数组，整型，每个元素占4字节</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;字节序前缀&gt;&lt;维度&gt;&lt;类型&gt;&lt;字节数或字符数&gt;</t>
+  </si>
+  <si>
+    <t>类型字符码格式</t>
+  </si>
+  <si>
+    <t>M8[Y] M8[M] M8[D] M8[h] M8[m] M8[s]</t>
+  </si>
+  <si>
+    <t>np.datetime64</t>
+  </si>
+  <si>
+    <t>U&lt;字符数&gt;</t>
+  </si>
+  <si>
+    <t>np.str_</t>
+  </si>
+  <si>
+    <t>c8/c16</t>
+  </si>
+  <si>
+    <t>np.complex64/128</t>
+  </si>
+  <si>
+    <t>f2/f4/f8</t>
+  </si>
+  <si>
+    <t>np.float/16/32/64</t>
+  </si>
+  <si>
+    <t>u1/u2/u4/u8</t>
+  </si>
+  <si>
+    <t>np.uint8/16/32/64</t>
+  </si>
+  <si>
+    <t>i1/i2/i4/i8</t>
+  </si>
+  <si>
+    <t>np.int8/16/32/64</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>np.bool_</t>
+  </si>
+  <si>
+    <t>类型字符码</t>
+  </si>
+  <si>
+    <t>自定义复合数据类型</t>
+  </si>
+  <si>
+    <t>str_，每个字符用32位Unicode编码表示</t>
+  </si>
+  <si>
+    <t>字串型</t>
+  </si>
+  <si>
+    <t>complex64/complex128</t>
+  </si>
+  <si>
+    <t>复数型</t>
+  </si>
+  <si>
+    <t>float16/float32/float64</t>
+  </si>
+  <si>
+    <t>浮点型</t>
+  </si>
+  <si>
+    <t>uint8(0~255)/uint16/uint32/uint64</t>
+  </si>
+  <si>
+    <t>无符号整数型</t>
+  </si>
+  <si>
+    <t>int8(-128~127)/int16/int32/int64</t>
+  </si>
+  <si>
+    <t>有符号整数型</t>
+  </si>
+  <si>
+    <t>bool_</t>
+  </si>
+  <si>
+    <t>布尔型</t>
+  </si>
+  <si>
+    <t>ndarray数组数据类型</t>
+  </si>
+  <si>
+    <t>&lt;numpy.flatiter object at 0x0000027B5A078AB0&gt;</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).flat</t>
+  </si>
+  <si>
+    <t>np.ndarray.flat</t>
+  </si>
+  <si>
+    <t>flat - 扁平迭代器</t>
+  </si>
+  <si>
+    <t>[[1 4]  [2 5]  [3 6]]</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).T</t>
+  </si>
+  <si>
+    <t>np.ndarray.T</t>
+  </si>
+  <si>
+    <t>T - 数组对象的转置视图</t>
+  </si>
+  <si>
+    <t>[[0 0 0]  [0 0 0]]</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).imag</t>
+  </si>
+  <si>
+    <t>np.ndarray.imag</t>
+  </si>
+  <si>
+    <t>imag - 复数数组的虚部数组</t>
+  </si>
+  <si>
+    <t>[[1 2 3]  [4 5 6]]</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).real</t>
+  </si>
+  <si>
+    <t>np.ndarray.real</t>
+  </si>
+  <si>
+    <t>real - 复数数组的实部数组</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).nbytes</t>
+  </si>
+  <si>
+    <t>np.ndarray.nbytes</t>
+  </si>
+  <si>
+    <t>nbytes - 总字节数 = size x itemsize</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).itemsize</t>
+  </si>
+  <si>
+    <t>np.ndarray.itemsize</t>
+  </si>
+  <si>
+    <t>itemsize - 元素字节数</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).ndim</t>
+  </si>
+  <si>
+    <t>np.ndarray.ndim</t>
+  </si>
+  <si>
+    <t>ndim - 维数，len(shape)</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).size</t>
+  </si>
+  <si>
+    <t>np.ndarray.size</t>
+  </si>
+  <si>
+    <t>size - 元素数量</t>
+  </si>
+  <si>
+    <t>dtype('int32')</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).size</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.ndarray.dtype</t>
+  </si>
+  <si>
+    <t>元素的类型</t>
+  </si>
+  <si>
+    <t>(2, 3)</t>
+  </si>
+  <si>
+    <t>np.array([[1,2,3], [4,5,6]]).shape</t>
+  </si>
+  <si>
+    <t>np.ndarray.shape</t>
+  </si>
+  <si>
+    <t>数组的维度</t>
+  </si>
+  <si>
+    <t>基本属性</t>
+  </si>
+  <si>
+    <t>ndarray属性</t>
+  </si>
+  <si>
+    <t>array([1., 1., 1., 1., 1.])</t>
+  </si>
+  <si>
+    <t>np.ones(5)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.ones(数组元素个数, dtype='类型')</t>
+  </si>
+  <si>
+    <t>全为1</t>
+  </si>
+  <si>
+    <t>array([0., 0., 0., 0., 0.])</t>
+  </si>
+  <si>
+    <t>np.zeros(5)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.zeros(数组元素个数, dtype='类型')</t>
+  </si>
+  <si>
+    <t>全为0</t>
+  </si>
+  <si>
+    <t>array([0, 2, 4, 6, 8])</t>
+  </si>
+  <si>
+    <t>np.arange(0, 10, 2)</t>
+  </si>
+  <si>
+    <t>np.arange(起始值(0),终止值,步长(1))</t>
+  </si>
+  <si>
+    <t>递增</t>
+  </si>
+  <si>
+    <t>array([1, 2, 3, 4, 5, 6])</t>
+  </si>
+  <si>
+    <t>np.array([1, 2, 3, 4, 5, 6])</t>
+  </si>
+  <si>
+    <t>np.array(任何可被解释为Numpy数组的逻辑结构)</t>
+  </si>
+  <si>
+    <t>基本转换创建</t>
+  </si>
+  <si>
+    <t>ndarray数组创建</t>
+  </si>
+  <si>
+    <t>基本用法</t>
+  </si>
+  <si>
+    <t>运行结果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>语法</t>
+  </si>
+  <si>
+    <t>注释2</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>统计矩阵bool(每个元素)后非False个数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.变为2页2行2列的三维数组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.变为1维数组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据对象拷贝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负数代表当前维度由其他参数决定，如</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.arange(6).reshape(-1, 3, 1)</t>
+  </si>
+  <si>
     <t>array([0, 1, 2, 3, 4])</t>
-  </si>
-  <si>
-    <t>np.arange(5).flatten()</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.flatten()</t>
-  </si>
-  <si>
-    <t>数据对象拷贝</t>
-  </si>
-  <si>
-    <t>复制变维（数据独立）</t>
-  </si>
-  <si>
-    <t>array([1, 1, 2, 2])</t>
-  </si>
-  <si>
-    <t>np.array([[[1,1], [2,2]]]).ravel()</t>
-  </si>
-  <si>
-    <t>c.ravel()</t>
-  </si>
-  <si>
-    <t>变为1维数组</t>
-  </si>
-  <si>
-    <t>array([[[0],[1]],  [[2],[3]]])</t>
-  </si>
-  <si>
-    <t>np.arange(4).reshape(2,2,1)</t>
-  </si>
-  <si>
-    <t>b.reshape(2, 2, 2)</t>
-  </si>
-  <si>
-    <t>变为2页2行2列的三维数组</t>
-  </si>
-  <si>
-    <t>视图变维（数据共享）</t>
-  </si>
-  <si>
-    <t>ndarray维度操作</t>
-  </si>
-  <si>
-    <t>3i4  #3个元素，一维数组，整型，每个元素占4字节</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;字节序前缀&gt;&lt;维度&gt;&lt;类型&gt;&lt;字节数或字符数&gt;</t>
-  </si>
-  <si>
-    <t>类型字符码格式</t>
-  </si>
-  <si>
-    <t>M8[Y] M8[M] M8[D] M8[h] M8[m] M8[s]</t>
-  </si>
-  <si>
-    <t>np.datetime64</t>
-  </si>
-  <si>
-    <t>U&lt;字符数&gt;</t>
-  </si>
-  <si>
-    <t>np.str_</t>
-  </si>
-  <si>
-    <t>c8/c16</t>
-  </si>
-  <si>
-    <t>np.complex64/128</t>
-  </si>
-  <si>
-    <t>f2/f4/f8</t>
-  </si>
-  <si>
-    <t>np.float/16/32/64</t>
-  </si>
-  <si>
-    <t>u1/u2/u4/u8</t>
-  </si>
-  <si>
-    <t>np.uint8/16/32/64</t>
-  </si>
-  <si>
-    <t>i1/i2/i4/i8</t>
-  </si>
-  <si>
-    <t>np.int8/16/32/64</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>np.bool_</t>
-  </si>
-  <si>
-    <t>类型字符码</t>
-  </si>
-  <si>
-    <t>自定义复合数据类型</t>
-  </si>
-  <si>
-    <t>str_，每个字符用32位Unicode编码表示</t>
-  </si>
-  <si>
-    <t>字串型</t>
-  </si>
-  <si>
-    <t>complex64/complex128</t>
-  </si>
-  <si>
-    <t>复数型</t>
-  </si>
-  <si>
-    <t>float16/float32/float64</t>
-  </si>
-  <si>
-    <t>浮点型</t>
-  </si>
-  <si>
-    <t>uint8(0~255)/uint16/uint32/uint64</t>
-  </si>
-  <si>
-    <t>无符号整数型</t>
-  </si>
-  <si>
-    <t>int8(-128~127)/int16/int32/int64</t>
-  </si>
-  <si>
-    <t>有符号整数型</t>
-  </si>
-  <si>
-    <t>bool_</t>
-  </si>
-  <si>
-    <t>布尔型</t>
-  </si>
-  <si>
-    <t>ndarray数组数据类型</t>
-  </si>
-  <si>
-    <t>&lt;numpy.flatiter object at 0x0000027B5A078AB0&gt;</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).flat</t>
-  </si>
-  <si>
-    <t>np.ndarray.flat</t>
-  </si>
-  <si>
-    <t>flat - 扁平迭代器</t>
-  </si>
-  <si>
-    <t>[[1 4]  [2 5]  [3 6]]</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).T</t>
-  </si>
-  <si>
-    <t>np.ndarray.T</t>
-  </si>
-  <si>
-    <t>T - 数组对象的转置视图</t>
-  </si>
-  <si>
-    <t>[[0 0 0]  [0 0 0]]</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).imag</t>
-  </si>
-  <si>
-    <t>np.ndarray.imag</t>
-  </si>
-  <si>
-    <t>imag - 复数数组的虚部数组</t>
-  </si>
-  <si>
-    <t>[[1 2 3]  [4 5 6]]</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).real</t>
-  </si>
-  <si>
-    <t>np.ndarray.real</t>
-  </si>
-  <si>
-    <t>real - 复数数组的实部数组</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).nbytes</t>
-  </si>
-  <si>
-    <t>np.ndarray.nbytes</t>
-  </si>
-  <si>
-    <t>nbytes - 总字节数 = size x itemsize</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).itemsize</t>
-  </si>
-  <si>
-    <t>np.ndarray.itemsize</t>
-  </si>
-  <si>
-    <t>itemsize - 元素字节数</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).ndim</t>
-  </si>
-  <si>
-    <t>np.ndarray.ndim</t>
-  </si>
-  <si>
-    <t>ndim - 维数，len(shape)</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).size</t>
-  </si>
-  <si>
-    <t>np.ndarray.size</t>
-  </si>
-  <si>
-    <t>size - 元素数量</t>
-  </si>
-  <si>
-    <t>dtype('int32')</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).size</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.ndarray.dtype</t>
-  </si>
-  <si>
-    <t>元素的类型</t>
-  </si>
-  <si>
-    <t>(2, 3)</t>
-  </si>
-  <si>
-    <t>np.array([[1,2,3], [4,5,6]]).shape</t>
-  </si>
-  <si>
-    <t>np.ndarray.shape</t>
-  </si>
-  <si>
-    <t>数组的维度</t>
-  </si>
-  <si>
-    <t>基本属性</t>
-  </si>
-  <si>
-    <t>ndarray属性</t>
-  </si>
-  <si>
-    <t>array([1., 1., 1., 1., 1.])</t>
-  </si>
-  <si>
-    <t>np.ones(5)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.ones(数组元素个数, dtype='类型')</t>
-  </si>
-  <si>
-    <t>全为1</t>
-  </si>
-  <si>
-    <t>array([0., 0., 0., 0., 0.])</t>
-  </si>
-  <si>
-    <t>np.zeros(5)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.zeros(数组元素个数, dtype='类型')</t>
-  </si>
-  <si>
-    <t>全为0</t>
-  </si>
-  <si>
-    <t>array([0, 2, 4, 6, 8])</t>
-  </si>
-  <si>
-    <t>np.arange(0, 10, 2)</t>
-  </si>
-  <si>
-    <t>np.arange(起始值(0),终止值,步长(1))</t>
-  </si>
-  <si>
-    <t>递增</t>
-  </si>
-  <si>
-    <t>array([1, 2, 3, 4, 5, 6])</t>
-  </si>
-  <si>
-    <t>np.array([1, 2, 3, 4, 5, 6])</t>
-  </si>
-  <si>
-    <t>np.array(任何可被解释为Numpy数组的逻辑结构)</t>
-  </si>
-  <si>
-    <t>基本转换创建</t>
-  </si>
-  <si>
-    <t>ndarray数组创建</t>
-  </si>
-  <si>
-    <t>基本用法</t>
-  </si>
-  <si>
-    <t>运行结果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-  </si>
-  <si>
-    <t>语法</t>
-  </si>
-  <si>
-    <t>注释2</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>列1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array([[0], [1], [2]], [[3], [4], [5]])</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.arange(6).reshape(2, 3, 1) # 等价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.直接改变对象维度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2929,38 +2956,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2976,35 +3004,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3113,6 +3112,35 @@
         <color theme="1"/>
         <name val="Consolas"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
@@ -3187,30 +3215,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18406A3E-45C1-4157-AEEB-DDFBEF2B31A7}" name="表2" displayName="表2" ref="A1:G62" totalsRowShown="0">
-  <autoFilter ref="A1:G62" xr:uid="{B7EBB1B1-08B3-4B7D-B19E-066045715EAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18406A3E-45C1-4157-AEEB-DDFBEF2B31A7}" name="表2" displayName="表2" ref="A1:G63" totalsRowShown="0">
+  <autoFilter ref="A1:G63" xr:uid="{B7EBB1B1-08B3-4B7D-B19E-066045715EAC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0304A2C7-1606-45DC-AE0D-00AFF58EF51C}" name="列1"/>
     <tableColumn id="2" xr3:uid="{03AFAEB7-F782-4FB0-A628-7D5ECDEE5405}" name="列2"/>
     <tableColumn id="3" xr3:uid="{B96887C5-B020-46C6-AAC8-B353F886985F}" name="注释"/>
     <tableColumn id="4" xr3:uid="{11F49415-CBC3-4FF5-8619-1F37D3AA5C8C}" name="注释2"/>
     <tableColumn id="5" xr3:uid="{0D4EB912-5A43-4330-A44D-20EAA4ADA7C5}" name="语法"/>
-    <tableColumn id="6" xr3:uid="{2A1F99F4-2DB8-4D86-A43F-8214A1CCA80A}" name="示例" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{4C63C2BF-9027-4F0E-B660-282D8B12C511}" name="运行结果" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2A1F99F4-2DB8-4D86-A43F-8214A1CCA80A}" name="示例" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{4C63C2BF-9027-4F0E-B660-282D8B12C511}" name="运行结果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="分类" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语法" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="功能" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="其他参数" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="分类" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语法" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="功能" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="其他参数" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3537,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D21641F-3FBD-454E-9F59-B07A92051FFF}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3557,132 +3585,132 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G8" s="9">
         <v>6</v>
@@ -3690,16 +3718,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
@@ -3707,13 +3735,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G10" s="9">
         <v>4</v>
@@ -3721,13 +3749,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G11" s="9">
         <v>24</v>
@@ -3735,350 +3763,357 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D20" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="7" t="s">
-        <v>120</v>
+      <c r="D32" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>114</v>
+      <c r="D33" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="F34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="G34" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="D35" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="F35" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="7" t="s">
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="E38" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="7" t="s">
+      <c r="G38" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="10" t="s">
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="F39" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="7" t="s">
+      <c r="G39" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="7" t="s">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E40" s="7" t="s">
         <v>89</v>
       </c>
@@ -4086,16 +4121,16 @@
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E42" s="7" t="s">
         <v>86</v>
       </c>
@@ -4103,16 +4138,16 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="E44" s="7" t="s">
         <v>83</v>
       </c>
@@ -4120,16 +4155,16 @@
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="E46" s="7" t="s">
         <v>80</v>
       </c>
@@ -4137,16 +4172,16 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="E48" s="7" t="s">
         <v>77</v>
       </c>
@@ -4154,43 +4189,43 @@
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="C50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="E51" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="9"/>
     </row>
@@ -4205,113 +4240,120 @@
       <c r="A54" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="C55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="D62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="F62" s="10"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="D63" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B1:G1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK($B1))</formula>
@@ -4553,7 +4595,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4571,7 +4613,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>